--- a/src/data/Projects.xlsx
+++ b/src/data/Projects.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25019"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FAA1D47-E123-4C78-8C91-BFC12F6731D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A211815-0F2E-47FC-8EF1-A2E722293549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Projects ID</t>
   </si>
@@ -49,6 +49,9 @@
     <t>Application Connections</t>
   </si>
   <si>
+    <t>People Connections</t>
+  </si>
+  <si>
     <t xml:space="preserve">Type </t>
   </si>
   <si>
@@ -73,49 +76,34 @@
     <t>core</t>
   </si>
   <si>
-    <t>People</t>
-  </si>
-  <si>
-    <t>Lynne Apple</t>
+    <t>Project 1</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>D-1</t>
-  </si>
-  <si>
-    <t>Bill August</t>
-  </si>
-  <si>
-    <t>D-1;D-2;D-3</t>
-  </si>
-  <si>
-    <t>Jack Able</t>
-  </si>
-  <si>
-    <t>I-10</t>
-  </si>
-  <si>
-    <t>D-3;D-19;D-4</t>
-  </si>
-  <si>
-    <t>A-9</t>
+    <t>P-1</t>
+  </si>
+  <si>
+    <t>Project 2</t>
+  </si>
+  <si>
+    <t>P-2</t>
+  </si>
+  <si>
+    <t>Project 3</t>
+  </si>
+  <si>
+    <t>P-3</t>
   </si>
   <si>
     <t>desktop</t>
   </si>
   <si>
-    <t>George Itto</t>
-  </si>
-  <si>
-    <t>I-1</t>
-  </si>
-  <si>
-    <t>I-2</t>
-  </si>
-  <si>
-    <t>I-3</t>
+    <t>Project 4</t>
+  </si>
+  <si>
+    <t>P-4</t>
   </si>
   <si>
     <t>support</t>
@@ -474,24 +462,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,15 +519,15 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
@@ -551,18 +536,15 @@
       <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
@@ -571,101 +553,72 @@
       <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
